--- a/htdocs/App/Controllers/Traspasos/3308GLW.xlsx
+++ b/htdocs/App/Controllers/Traspasos/3308GLW.xlsx
@@ -31,19 +31,19 @@
     <t>Fecha Entrada</t>
   </si>
   <si>
-    <t>28-12-2017</t>
+    <t>19-01-2018</t>
   </si>
   <si>
     <t>Atendido por:</t>
   </si>
   <si>
-    <t>Cristina</t>
+    <t>Silvia</t>
   </si>
   <si>
     <t>Provisión</t>
   </si>
   <si>
-    <t>efectivo</t>
+    <t>visa</t>
   </si>
   <si>
     <t>Cobrado el</t>
